--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2025.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2025.xlsx
@@ -52,7 +52,7 @@
     <x:t>793</x:t>
   </x:si>
   <x:si>
-    <x:t>466</x:t>
+    <x:t>468</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
@@ -67,7 +67,7 @@
     <x:t>660</x:t>
   </x:si>
   <x:si>
-    <x:t>2047</x:t>
+    <x:t>2049</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,7 +97,7 @@
     <x:t>865</x:t>
   </x:si>
   <x:si>
-    <x:t>492</x:t>
+    <x:t>494</x:t>
   </x:si>
   <x:si>
     <x:t>31</x:t>
@@ -109,7 +109,7 @@
     <x:t>690</x:t>
   </x:si>
   <x:si>
-    <x:t>2182</x:t>
+    <x:t>2184</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -136,7 +136,7 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>109</x:t>
+    <x:t>110</x:t>
   </x:si>
   <x:si>
     <x:t>87</x:t>
@@ -145,10 +145,7 @@
     <x:t>16</x:t>
   </x:si>
   <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>245</x:t>
+    <x:t>247</x:t>
   </x:si>
   <x:si>
     <x:t>23</x:t>
@@ -160,27 +157,21 @@
     <x:t>61</x:t>
   </x:si>
   <x:si>
-    <x:t>132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
+    <x:t>133</x:t>
   </x:si>
   <x:si>
     <x:t>17</x:t>
   </x:si>
   <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>306</x:t>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>308</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>688</x:t>
-  </x:si>
-  <x:si>
     <x:t>141</x:t>
   </x:si>
   <x:si>
@@ -190,22 +181,25 @@
     <x:t>38</x:t>
   </x:si>
   <x:si>
-    <x:t>140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1064</x:t>
+    <x:t>143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1069</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>697</x:t>
+    <x:t>699</x:t>
   </x:si>
   <x:si>
     <x:t>142</x:t>
   </x:si>
   <x:si>
-    <x:t>1076</x:t>
+    <x:t>145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1081</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -214,9 +208,6 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
@@ -250,22 +241,28 @@
     <x:t>Trespass of Real Property</x:t>
   </x:si>
   <x:si>
-    <x:t>173</x:t>
-  </x:si>
-  <x:si>
-    <x:t>240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>471</x:t>
-  </x:si>
-  <x:si>
-    <x:t>174</x:t>
-  </x:si>
-  <x:si>
-    <x:t>242</x:t>
-  </x:si>
-  <x:si>
-    <x:t>476</x:t>
+    <x:t>177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>484</x:t>
+  </x:si>
+  <x:si>
+    <x:t>178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>489</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -882,10 +879,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I8" s="1" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="I8" s="1" t="s">
-        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -896,10 +893,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
         <x:v>22</x:v>
@@ -911,10 +908,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I9" s="1" t="s">
         <x:v>46</x:v>
-      </x:c>
-      <x:c r="I9" s="1" t="s">
-        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -925,65 +922,65 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I10" s="1" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H10" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="I10" s="1" t="s">
-        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="s">
         <x:v>54</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E11" s="1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="s">
-        <x:v>57</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I11" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
         <x:v>33</x:v>
@@ -1006,45 +1003,45 @@
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I13" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>22</x:v>
@@ -1059,12 +1056,12 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>18</x:v>
@@ -1093,16 +1090,16 @@
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
         <x:v>22</x:v>
@@ -1117,21 +1114,21 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>34</x:v>
@@ -1143,21 +1140,21 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
         <x:v>15</x:v>
@@ -1172,59 +1169,59 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>22</x:v>
@@ -1233,12 +1230,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
@@ -1267,22 +1264,22 @@
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F22" s="1" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="D22" s="1" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E22" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="s">
-        <x:v>28</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>22</x:v>
@@ -1291,7 +1288,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2025.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2025.xlsx
@@ -52,7 +52,7 @@
     <x:t>793</x:t>
   </x:si>
   <x:si>
-    <x:t>468</x:t>
+    <x:t>471</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
@@ -64,10 +64,10 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>660</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2049</x:t>
+    <x:t>663</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2055</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,7 +97,7 @@
     <x:t>865</x:t>
   </x:si>
   <x:si>
-    <x:t>494</x:t>
+    <x:t>497</x:t>
   </x:si>
   <x:si>
     <x:t>31</x:t>
@@ -106,10 +106,10 @@
     <x:t>101</x:t>
   </x:si>
   <x:si>
-    <x:t>690</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2184</x:t>
+    <x:t>693</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2190</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -136,42 +136,48 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>249</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134</x:t>
+  </x:si>
+  <x:si>
     <x:t>110</x:t>
   </x:si>
   <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>133</x:t>
-  </x:si>
-  <x:si>
     <x:t>17</x:t>
   </x:si>
   <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>308</x:t>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>310</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
+    <x:t>691</x:t>
+  </x:si>
+  <x:si>
     <x:t>141</x:t>
   </x:si>
   <x:si>
@@ -184,13 +190,13 @@
     <x:t>143</x:t>
   </x:si>
   <x:si>
-    <x:t>1069</x:t>
+    <x:t>1070</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>699</x:t>
+    <x:t>700</x:t>
   </x:si>
   <x:si>
     <x:t>142</x:t>
@@ -199,7 +205,7 @@
     <x:t>145</x:t>
   </x:si>
   <x:si>
-    <x:t>1081</x:t>
+    <x:t>1082</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -208,6 +214,9 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
@@ -244,25 +253,25 @@
     <x:t>177</x:t>
   </x:si>
   <x:si>
-    <x:t>246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>484</x:t>
+    <x:t>251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>490</x:t>
   </x:si>
   <x:si>
     <x:t>178</x:t>
   </x:si>
   <x:si>
-    <x:t>248</x:t>
+    <x:t>254</x:t>
   </x:si>
   <x:si>
     <x:t>33</x:t>
   </x:si>
   <x:si>
-    <x:t>489</x:t>
+    <x:t>496</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -879,7 +888,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I8" s="1" t="s">
         <x:v>43</x:v>
@@ -925,62 +934,62 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I10" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I11" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
         <x:v>33</x:v>
@@ -1003,42 +1012,42 @@
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I13" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
         <x:v>34</x:v>
@@ -1056,12 +1065,12 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>18</x:v>
@@ -1090,16 +1099,16 @@
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
         <x:v>22</x:v>
@@ -1114,21 +1123,21 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>34</x:v>
@@ -1140,21 +1149,21 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
         <x:v>15</x:v>
@@ -1169,56 +1178,56 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
         <x:v>28</x:v>
@@ -1230,12 +1239,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
@@ -1244,7 +1253,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
         <x:v>22</x:v>
@@ -1259,27 +1268,27 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="E22" s="1" t="s">
-        <x:v>77</x:v>
-      </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>22</x:v>
@@ -1288,7 +1297,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2025.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2025.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>793</x:t>
+    <x:t>800</x:t>
   </x:si>
   <x:si>
     <x:t>471</x:t>
@@ -67,7 +67,7 @@
     <x:t>663</x:t>
   </x:si>
   <x:si>
-    <x:t>2055</x:t>
+    <x:t>2062</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -88,124 +88,127 @@
     <x:t>30</x:t>
   </x:si>
   <x:si>
+    <x:t>136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>497</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>693</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Disorderly Conduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
     <x:t>135</x:t>
   </x:si>
   <x:si>
-    <x:t>Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>865</x:t>
-  </x:si>
-  <x:si>
-    <x:t>497</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>693</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Disorderly Conduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>249</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
     <x:t>17</x:t>
   </x:si>
   <x:si>
     <x:t>45</x:t>
   </x:si>
   <x:si>
-    <x:t>310</x:t>
+    <x:t>312</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>691</x:t>
+    <x:t>692</x:t>
   </x:si>
   <x:si>
     <x:t>141</x:t>
   </x:si>
   <x:si>
-    <x:t>53</x:t>
+    <x:t>54</x:t>
   </x:si>
   <x:si>
     <x:t>38</x:t>
   </x:si>
   <x:si>
-    <x:t>143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1070</x:t>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1073</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>700</x:t>
+    <x:t>701</x:t>
   </x:si>
   <x:si>
     <x:t>142</x:t>
   </x:si>
   <x:si>
-    <x:t>145</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1082</x:t>
+    <x:t>146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1085</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -217,6 +220,9 @@
     <x:t>18</x:t>
   </x:si>
   <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
@@ -226,18 +232,12 @@
     <x:t>13</x:t>
   </x:si>
   <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
     <x:t>116</x:t>
   </x:si>
   <x:si>
     <x:t>11</x:t>
   </x:si>
   <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
     <x:t>82</x:t>
   </x:si>
   <x:si>
@@ -253,25 +253,22 @@
     <x:t>177</x:t>
   </x:si>
   <x:si>
-    <x:t>251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>490</x:t>
-  </x:si>
-  <x:si>
-    <x:t>178</x:t>
-  </x:si>
-  <x:si>
     <x:t>254</x:t>
   </x:si>
   <x:si>
+    <x:t>493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>257</x:t>
+  </x:si>
+  <x:si>
     <x:t>33</x:t>
   </x:si>
   <x:si>
-    <x:t>496</x:t>
+    <x:t>500</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -734,7 +731,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
         <x:v>21</x:v>
@@ -888,10 +885,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I8" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -902,10 +899,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
         <x:v>22</x:v>
@@ -917,10 +914,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I9" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -931,65 +928,65 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I10" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I11" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
         <x:v>33</x:v>
@@ -1012,36 +1009,36 @@
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I13" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>10</x:v>
@@ -1050,7 +1047,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>22</x:v>
@@ -1065,12 +1062,12 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>18</x:v>
@@ -1099,7 +1096,7 @@
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>25</x:v>
@@ -1108,7 +1105,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
         <x:v>22</x:v>
@@ -1123,21 +1120,21 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>34</x:v>
@@ -1149,21 +1146,21 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
         <x:v>15</x:v>
@@ -1178,15 +1175,15 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>25</x:v>
@@ -1198,10 +1195,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>22</x:v>
@@ -1227,10 +1224,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>22</x:v>
@@ -1239,7 +1236,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1250,7 +1247,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
         <x:v>15</x:v>
@@ -1268,7 +1265,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1279,16 +1276,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="E22" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F22" s="1" t="s">
         <x:v>83</x:v>
-      </x:c>
-      <x:c r="E22" s="1" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="s">
-        <x:v>84</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>22</x:v>
@@ -1297,7 +1294,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2025.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2025.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>800</x:t>
+    <x:t>801</x:t>
   </x:si>
   <x:si>
     <x:t>471</x:t>
@@ -67,7 +67,7 @@
     <x:t>663</x:t>
   </x:si>
   <x:si>
-    <x:t>2062</x:t>
+    <x:t>2063</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -94,7 +94,7 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>872</x:t>
+    <x:t>873</x:t>
   </x:si>
   <x:si>
     <x:t>497</x:t>
@@ -109,7 +109,7 @@
     <x:t>693</x:t>
   </x:si>
   <x:si>
-    <x:t>2198</x:t>
+    <x:t>2199</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -178,9 +178,6 @@
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>692</x:t>
-  </x:si>
-  <x:si>
     <x:t>141</x:t>
   </x:si>
   <x:si>
@@ -193,13 +190,13 @@
     <x:t>144</x:t>
   </x:si>
   <x:si>
-    <x:t>1073</x:t>
+    <x:t>1074</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>701</x:t>
+    <x:t>702</x:t>
   </x:si>
   <x:si>
     <x:t>142</x:t>
@@ -208,7 +205,7 @@
     <x:t>146</x:t>
   </x:si>
   <x:si>
-    <x:t>1085</x:t>
+    <x:t>1086</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -957,25 +954,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D11" s="1" t="s">
+      <x:c r="E11" s="1" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="E11" s="1" t="s">
+      <x:c r="F11" s="1" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="s">
-        <x:v>57</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I11" s="1" t="s">
         <x:v>58</x:v>
-      </x:c>
-      <x:c r="I11" s="1" t="s">
-        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -986,7 +983,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
         <x:v>33</x:v>
@@ -1015,30 +1012,30 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
-        <x:v>62</x:v>
-      </x:c>
       <x:c r="E13" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F13" s="1" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="F13" s="1" t="s">
-        <x:v>57</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I13" s="1" t="s">
         <x:v>63</x:v>
-      </x:c>
-      <x:c r="I13" s="1" t="s">
-        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>10</x:v>
@@ -1047,7 +1044,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>22</x:v>
@@ -1062,12 +1059,12 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>18</x:v>
@@ -1096,7 +1093,7 @@
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>25</x:v>
@@ -1120,21 +1117,21 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
         <x:v>70</x:v>
-      </x:c>
-      <x:c r="D17" s="1" t="s">
-        <x:v>71</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>34</x:v>
@@ -1149,18 +1146,18 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
         <x:v>15</x:v>
@@ -1175,7 +1172,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
         <x:v>28</x:v>
@@ -1183,48 +1180,48 @@
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="I19" s="1" t="s">
         <x:v>75</x:v>
-      </x:c>
-      <x:c r="I19" s="1" t="s">
-        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D20" s="1" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
         <x:v>43</x:v>
@@ -1236,12 +1233,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
@@ -1270,22 +1267,22 @@
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="E22" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="F22" s="1" t="s">
         <x:v>82</x:v>
-      </x:c>
-      <x:c r="E22" s="1" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="s">
-        <x:v>83</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>22</x:v>
@@ -1294,7 +1291,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2025.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2025.xlsx
@@ -49,16 +49,16 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>801</x:t>
-  </x:si>
-  <x:si>
-    <x:t>471</x:t>
+    <x:t>802</x:t>
+  </x:si>
+  <x:si>
+    <x:t>472</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>97</x:t>
+    <x:t>98</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
@@ -67,7 +67,7 @@
     <x:t>663</x:t>
   </x:si>
   <x:si>
-    <x:t>2063</x:t>
+    <x:t>2066</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -94,22 +94,22 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>873</x:t>
-  </x:si>
-  <x:si>
-    <x:t>497</x:t>
+    <x:t>874</x:t>
+  </x:si>
+  <x:si>
+    <x:t>498</x:t>
   </x:si>
   <x:si>
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>101</x:t>
+    <x:t>102</x:t>
   </x:si>
   <x:si>
     <x:t>693</x:t>
   </x:si>
   <x:si>
-    <x:t>2199</x:t>
+    <x:t>2202</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -178,7 +178,10 @@
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>141</x:t>
+    <x:t>696</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
   </x:si>
   <x:si>
     <x:t>54</x:t>
@@ -190,22 +193,22 @@
     <x:t>144</x:t>
   </x:si>
   <x:si>
-    <x:t>1074</x:t>
+    <x:t>1078</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>702</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142</x:t>
+    <x:t>705</x:t>
+  </x:si>
+  <x:si>
+    <x:t>143</x:t>
   </x:si>
   <x:si>
     <x:t>146</x:t>
   </x:si>
   <x:si>
-    <x:t>1086</x:t>
+    <x:t>1090</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -250,22 +253,22 @@
     <x:t>177</x:t>
   </x:si>
   <x:si>
-    <x:t>254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>493</x:t>
+    <x:t>255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>494</x:t>
   </x:si>
   <x:si>
     <x:t>179</x:t>
   </x:si>
   <x:si>
-    <x:t>257</x:t>
+    <x:t>258</x:t>
   </x:si>
   <x:si>
     <x:t>33</x:t>
   </x:si>
   <x:si>
-    <x:t>500</x:t>
+    <x:t>501</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -954,25 +957,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I11" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -983,7 +986,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
         <x:v>33</x:v>
@@ -1012,30 +1015,30 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I13" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>10</x:v>
@@ -1044,7 +1047,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>22</x:v>
@@ -1059,12 +1062,12 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>18</x:v>
@@ -1093,7 +1096,7 @@
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>25</x:v>
@@ -1117,21 +1120,21 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>34</x:v>
@@ -1146,18 +1149,18 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
         <x:v>15</x:v>
@@ -1172,7 +1175,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
         <x:v>28</x:v>
@@ -1180,48 +1183,48 @@
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
         <x:v>43</x:v>
@@ -1233,12 +1236,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
@@ -1267,22 +1270,22 @@
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>22</x:v>
@@ -1291,7 +1294,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2025.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2025.xlsx
@@ -76,7 +76,7 @@
     <x:t>72</x:t>
   </x:si>
   <x:si>
-    <x:t>26</x:t>
+    <x:t>27</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
@@ -88,7 +88,7 @@
     <x:t>30</x:t>
   </x:si>
   <x:si>
-    <x:t>136</x:t>
+    <x:t>137</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
@@ -97,7 +97,7 @@
     <x:t>874</x:t>
   </x:si>
   <x:si>
-    <x:t>498</x:t>
+    <x:t>499</x:t>
   </x:si>
   <x:si>
     <x:t>32</x:t>
@@ -109,7 +109,7 @@
     <x:t>693</x:t>
   </x:si>
   <x:si>
-    <x:t>2202</x:t>
+    <x:t>2203</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -178,7 +178,7 @@
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>696</x:t>
+    <x:t>698</x:t>
   </x:si>
   <x:si>
     <x:t>142</x:t>
@@ -193,13 +193,13 @@
     <x:t>144</x:t>
   </x:si>
   <x:si>
-    <x:t>1078</x:t>
+    <x:t>1080</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>705</x:t>
+    <x:t>707</x:t>
   </x:si>
   <x:si>
     <x:t>143</x:t>
@@ -208,7 +208,7 @@
     <x:t>146</x:t>
   </x:si>
   <x:si>
-    <x:t>1090</x:t>
+    <x:t>1092</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
